--- a/data/ProjectsList.xlsx
+++ b/data/ProjectsList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>1</t>
   </si>
@@ -79,12 +79,22 @@
   </si>
   <si>
     <t>The Dream Team</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>newProject</t>
+  </si>
+  <si>
+    <t>New Project Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -435,15 +445,15 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="4.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.81640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="22.1796875" collapsed="true"/>
+    <col min="4" max="16384" style="1" width="8.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -512,15 +522,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/ProjectsList.xlsx
+++ b/data/ProjectsList.xlsx
@@ -4,19 +4,53 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+  <si>
+    <t>The Dream Team</t>
+  </si>
+  <si>
+    <t>the Dream Team description</t>
+  </si>
+  <si>
+    <t>Guardians of the Galaxy</t>
+  </si>
+  <si>
+    <t>Guardians of the Galaxy (retroactively referred to as Guardians of the Galaxy Vol. 1) is a 2014 American superhero film based on the Marvel Comics superhero team of the same name, produced by Marvel Studios and distributed by Walt Disney Studios Motion Pictures. It is the tenth film in the Marvel Cinematic Universe (MCU).</t>
+  </si>
+  <si>
+    <t>Infinity War</t>
+  </si>
+  <si>
+    <t>Avengers: Infinity War is a 2018 American superhero film based on the Marvel Comics superhero team the Avengers, produced by Marvel Studios and distributed by Walt Disney Studios Motion Pictures. It is the sequel to 2012 The Avengers and 2015 Avengers: Age of Ultron, and the nineteenth film in the Marvel Cinematic Universe (MCU).</t>
+  </si>
+  <si>
+    <t>Ragnarok</t>
+  </si>
+  <si>
+    <t>Thor: Ragnarok is a 2017 American superhero film based on the Marvel Comics character Thor, produced by Marvel Studios and distributed by Walt Disney Studios Motion Pictures. It is the sequel to 2011 Thor and 2013 Thor: The Dark World, and is the seventeenth film in the Marvel Cinematic Universe (MCU).</t>
+  </si>
+  <si>
+    <t>Venom</t>
+  </si>
+  <si>
+    <t>Venom is a 2018 American superhero film based on the Marvel Comics character of the same name, produced by Columbia Pictures in association with Marvel and Tencent Pictures. Distributed by Sony Pictures Releasing, it is the first film in Sony's Marvel Universe, adjunct to the Marvel Cinematic Universe (MCU).</t>
+  </si>
+  <si>
+    <t>HeroesMix</t>
+  </si>
+  <si>
+    <t>Ungrouped characters. Saving world from time to time.</t>
+  </si>
   <si>
     <t>1</t>
   </si>
@@ -34,54 +68,6 @@
   </si>
   <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Guardians of the Galaxy</t>
-  </si>
-  <si>
-    <t>Avengers</t>
-  </si>
-  <si>
-    <t>Marvel's The Avengers (classified under the name Marvel Avengers Assemble in the United Kingdom and Ireland), or simply The Avengers, is a 2012 American superhero film based on the Marvel Comics superhero team of the same name, produced by Marvel Studios and distributed by Walt Disney Studios Motion Pictures.</t>
-  </si>
-  <si>
-    <t>Guardians of the Galaxy (retroactively referred to as Guardians of the Galaxy Vol. 1) is a 2014 American superhero film based on the Marvel Comics superhero team of the same name, produced by Marvel Studios and distributed by Walt Disney Studios Motion Pictures. It is the tenth film in the Marvel Cinematic Universe (MCU).</t>
-  </si>
-  <si>
-    <t>Infinity War</t>
-  </si>
-  <si>
-    <t>Avengers: Infinity War is a 2018 American superhero film based on the Marvel Comics superhero team the Avengers, produced by Marvel Studios and distributed by Walt Disney Studios Motion Pictures. It is the sequel to 2012 The Avengers and 2015 Avengers: Age of Ultron, and the nineteenth film in the Marvel Cinematic Universe (MCU).</t>
-  </si>
-  <si>
-    <t>Ragnarok</t>
-  </si>
-  <si>
-    <t>Thor: Ragnarok is a 2017 American superhero film based on the Marvel Comics character Thor, produced by Marvel Studios and distributed by Walt Disney Studios Motion Pictures. It is the sequel to 2011 Thor and 2013 Thor: The Dark World, and is the seventeenth film in the Marvel Cinematic Universe (MCU).</t>
-  </si>
-  <si>
-    <t>Venom</t>
-  </si>
-  <si>
-    <t>Venom is a 2018 American superhero film based on the Marvel Comics character of the same name, produced by Columbia Pictures in association with Marvel and Tencent Pictures. Distributed by Sony Pictures Releasing, it is the first film in Sony's Marvel Universe, adjunct to the Marvel Cinematic Universe (MCU).</t>
-  </si>
-  <si>
-    <t>HeroesMix</t>
-  </si>
-  <si>
-    <t>Ungrouped characters. Saving world from time to time.</t>
-  </si>
-  <si>
-    <t>the Dream Team description</t>
-  </si>
-  <si>
-    <t>The Dream Team</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>newProject</t>
@@ -132,9 +118,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -442,123 +426,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="4.81640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.81640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="22.1796875" collapsed="true"/>
-    <col min="4" max="16384" style="1" width="8.90625" collapsed="true"/>
+    <col min="1" max="16384" style="1" width="8.7265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>